--- a/ExcelTestInputData/Mamatva.xlsx
+++ b/ExcelTestInputData/Mamatva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\Jyotsna - Pharmacy\ExcelTestInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960E43D-72BF-4390-9A1E-1D14FF7C8321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A26C83-6328-40C2-B22D-C740C01763BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2720" windowWidth="14400" windowHeight="7360" xr2:uid="{2EFE5C9F-061C-472A-9413-BC4436AA60B6}"/>
+    <workbookView xWindow="3300" yWindow="2720" windowWidth="14400" windowHeight="7360" xr2:uid="{2EFE5C9F-061C-472A-9413-BC4436AA60B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Superadmin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Login emailid</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Login pwd</t>
   </si>
   <si>
-    <t>Admin Name</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -51,16 +48,37 @@
     <t>Mohs10@</t>
   </si>
   <si>
-    <t>Gayatri</t>
-  </si>
-  <si>
-    <t>g@y@141i98</t>
-  </si>
-  <si>
-    <t>gayatri141100@gmail.com</t>
-  </si>
-  <si>
-    <t>Tirupati</t>
+    <t>admin@mohs10.com</t>
+  </si>
+  <si>
+    <t>Mohs101@</t>
+  </si>
+  <si>
+    <t>Admin/User Name</t>
+  </si>
+  <si>
+    <t>Sampark</t>
+  </si>
+  <si>
+    <t>Sambalpur</t>
+  </si>
+  <si>
+    <t>sampark@gmail.com</t>
+  </si>
+  <si>
+    <t>$@mP@Rk23</t>
+  </si>
+  <si>
+    <t>Ganjam</t>
+  </si>
+  <si>
+    <t>Sandhya</t>
+  </si>
+  <si>
+    <t>sandhya13@gmail.com</t>
+  </si>
+  <si>
+    <t>$@ndhy@23</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -125,6 +143,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -441,20 +462,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB1767-B7E4-4326-8593-3EA71B83CCED}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="24.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -465,52 +486,84 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{0D13C596-8C72-4483-9C3B-082C7FF30C3B}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{C643BD73-5036-4DA6-829D-92D14C09B492}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{6EED5FCD-022F-4FC9-88A7-7A0EC5017A00}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{2214A19C-80A7-496B-BAD3-B17F6DB47EC1}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{F0B040E5-D2CF-4FCA-BB1C-F1ED53AEFEA7}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{9118E27C-B3EA-418D-8218-77EC405F70EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>